--- a/Src/DetailedSamples/Samples/Workbook/Output/LoadWorkbookWithUrl.xlsx
+++ b/Src/DetailedSamples/Samples/Workbook/Output/LoadWorkbookWithUrl.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="To Do List Printable" sheetId="1" r:id="Rfb34b93d174e4f84"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="Rb21e4e0be06d4a38"/>
+    <sheet name="To Do List Printable" sheetId="1" r:id="R2a99329c93f848a6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -47,18 +46,12 @@
   <si>
     <t xml:space="preserve">In Red</t>
   </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <color theme="1"/>
       <sz val="10"/>
@@ -82,12 +75,6 @@
       <b/>
       <color theme="1"/>
       <sz val="12"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -132,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -150,7 +137,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -671,24 +657,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>